--- a/tests/functional/same_year/output.xlsx
+++ b/tests/functional/same_year/output.xlsx
@@ -600,7 +600,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,7 +688,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="3">
-        <v>61.748796550000002</v>
+        <v>61</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>14</v>

--- a/tests/functional/same_year/output.xlsx
+++ b/tests/functional/same_year/output.xlsx
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,7 +682,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>14</v>
@@ -790,7 +790,7 @@
         <v>1999</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>

--- a/tests/functional/same_year/output.xlsx
+++ b/tests/functional/same_year/output.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -600,7 +601,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,7 +715,7 @@
         <v>1999</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
